--- a/data.xlsx
+++ b/data.xlsx
@@ -1,63 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Nashik</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,18 +49,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,99 +412,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>destination</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yeola</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yeola</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nashik</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kotamgaon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kopergaon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nashik</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rahuri</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>shirdi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -478,24 +573,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
